--- a/Selenium_project_demo/data/ClientImportTest.xlsx
+++ b/Selenium_project_demo/data/ClientImportTest.xlsx
@@ -2,20 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ontariogov-my.sharepoint.com/personal/adnan_faizi_ontario_ca/Documents/Desktop/OACIS Documents/Test Automation/TestAutomation-Code-WS/OACIS-Test-Automation-WS/Selenium_project_demo/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC10487F0959627A5BDE58F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7B4FF9-BE9B-4DE4-AE4F-B5B17A8A5009}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EECFFC4A-D5E4-4234-9F0E-46B99A81224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="18240" xr2:uid="{CD436055-7793-4522-B33F-FDB2A4DB5EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CLName</t>
   </si>
@@ -33,43 +29,19 @@
     <t>CFName</t>
   </si>
   <si>
-    <t>Dob</t>
-  </si>
-  <si>
-    <t>CLNameOne</t>
-  </si>
-  <si>
-    <t>CFNameOne</t>
-  </si>
-  <si>
-    <t>CLNameTwo</t>
-  </si>
-  <si>
-    <t>CFNameTwo</t>
-  </si>
-  <si>
-    <t>CLNameThree</t>
-  </si>
-  <si>
-    <t>CFNameThree</t>
-  </si>
-  <si>
-    <t>CLNameFour</t>
-  </si>
-  <si>
-    <t>CFNameFour</t>
-  </si>
-  <si>
-    <t>CLNameFive</t>
-  </si>
-  <si>
-    <t>CFNameFive</t>
-  </si>
-  <si>
-    <t>CLNameSix</t>
-  </si>
-  <si>
-    <t>CFNameSix</t>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>testFirstOne</t>
+  </si>
+  <si>
+    <t>testFirstTwo</t>
+  </si>
+  <si>
+    <t>testLastOne</t>
+  </si>
+  <si>
+    <t>testLastTwo</t>
   </si>
 </sst>
 </file>
@@ -105,7 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -142,7 +115,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -154,7 +127,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -201,6 +174,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,6 +226,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,25 +394,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604ABAC2-433B-4E79-81F8-016D0590B40A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -413,72 +420,49 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2">
+        <v>37319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>39569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39934</v>
+      <c r="C3" s="2">
+        <v>37320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>38777</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>39052</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>38353</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>39479</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>